--- a/data/trans_media/Q17H_M-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q17H_M-Estudios-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 2,84</t>
+          <t>2,35; 2,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,81</t>
+          <t>2,4; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,89</t>
+          <t>2,38; 2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,87</t>
+          <t>2,49; 2,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,68</t>
+          <t>2,32; 2,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,73</t>
+          <t>2,33; 2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,78</t>
+          <t>2,49; 2,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,68</t>
+          <t>2,4; 2,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,72</t>
+          <t>2,42; 2,72</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,52</t>
+          <t>3,14; 3,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,18</t>
+          <t>2,88; 3,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,16</t>
+          <t>2,85; 3,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,38</t>
+          <t>3,01; 3,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,12</t>
+          <t>2,81; 3,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,07</t>
+          <t>2,8; 3,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,41</t>
+          <t>3,14; 3,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,12</t>
+          <t>2,9; 3,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,08</t>
+          <t>2,87; 3,09</t>
         </is>
       </c>
     </row>
@@ -905,22 +905,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,56</t>
+          <t>2,91; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,41</t>
+          <t>2,78; 3,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,15</t>
+          <t>2,53; 3,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,34</t>
+          <t>2,7; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +930,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,35</t>
+          <t>2,8; 3,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,38</t>
+          <t>2,87; 3,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,29</t>
+          <t>2,83; 3,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,16</t>
+          <t>2,76; 3,15</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,24</t>
+          <t>2,96; 3,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,05</t>
+          <t>2,82; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,27 +1030,27 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,12</t>
+          <t>2,87; 3,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 2,92</t>
+          <t>2,71; 2,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 2,96</t>
+          <t>2,73; 2,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,15</t>
+          <t>2,96; 3,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 2,96</t>
+          <t>2,8; 2,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
